--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2977937.456503771</v>
+        <v>2973633.116693904</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.83417464571001</v>
+        <v>85.20115868761656</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.8280576942317</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="3">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>142.3855621951433</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -831,16 +831,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -876,13 +876,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>11.39631491633664</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>16.50545955619159</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C5" t="n">
-        <v>263.7138800015062</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="D5" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>212.568965117905</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>2.875953774682731</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>107.1258713709638</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>17.38468577806359</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>182.0466682725274</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.44967830595505</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,10 +1144,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5491597882495</v>
+        <v>11.54915978824949</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>241.2755231462504</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1220,7 +1220,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>155.8686312908659</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -1229,10 +1229,10 @@
         <v>135.3351760237737</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614508</v>
+        <v>92.83909691614505</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115246</v>
+        <v>18.47335059662623</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3791152901739</v>
+        <v>134.3791152901738</v>
       </c>
       <c r="T9" t="n">
         <v>192.0697045406877</v>
@@ -1296,22 +1296,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>82.92037954470028</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430995</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640954</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>262.1746133104954</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1530,10 +1530,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>19.72264368952156</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,13 +1587,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>210.0080582894229</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>152.8546892482051</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>54.63637568893558</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>164.5981994227929</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,13 +2058,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417083</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>134.1343006978452</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892427993</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695535</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470131</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128548</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2487,7 +2487,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012174</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>107.9721668030643</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>148.235026438394</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,19 +2718,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>30.65104903283357</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>56.03635866484639</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3040,10 +3040,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3189,16 +3189,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>134.3262991707162</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3207,7 +3207,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3319,7 +3319,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3423,25 +3423,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168.97752971242</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3559,7 +3559,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>113.7076464771371</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>252.0696466416249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3745,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>61.6215214068367</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>92.8380285705618</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>690.2330699327781</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="C2" t="n">
-        <v>423.8554133656</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="D2" t="n">
-        <v>423.8554133656</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="E2" t="n">
-        <v>157.477756798422</v>
+        <v>114.1043876014619</v>
       </c>
       <c r="F2" t="n">
-        <v>150.5322560492186</v>
+        <v>107.1588868522584</v>
       </c>
       <c r="G2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
         <v>142.2640879052541</v>
@@ -4339,13 +4339,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>943.9180879916494</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>943.9180879916494</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>690.2330699327781</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>690.2330699327781</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="W2" t="n">
-        <v>690.2330699327781</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="X2" t="n">
-        <v>690.2330699327781</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="Y2" t="n">
-        <v>690.2330699327781</v>
+        <v>380.4820441686398</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>280.8187272956869</v>
+        <v>131.5183722823837</v>
       </c>
       <c r="C3" t="n">
-        <v>280.8187272956869</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>280.8187272956869</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>503.6022960313625</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>739.52866342936</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
         <v>1026.524810789493</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>911.0317198089103</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>911.0317198089103</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>911.0317198089103</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>656.7943630807088</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X3" t="n">
-        <v>656.7943630807088</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y3" t="n">
-        <v>449.0340643157549</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>822.5515116540738</v>
+        <v>589.4012085945865</v>
       </c>
       <c r="C4" t="n">
-        <v>653.6153287261669</v>
+        <v>589.4012085945865</v>
       </c>
       <c r="D4" t="n">
-        <v>653.6153287261669</v>
+        <v>439.2845691822508</v>
       </c>
       <c r="E4" t="n">
-        <v>505.7022351437738</v>
+        <v>291.3714755998577</v>
       </c>
       <c r="F4" t="n">
-        <v>358.8122876458634</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2429270008668</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="H4" t="n">
-        <v>36.32155393434482</v>
+        <v>144.4815281019473</v>
       </c>
       <c r="I4" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4524,16 +4524,16 @@
         <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>1043.344090797604</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>1043.344090797604</v>
+        <v>1038.183338636134</v>
       </c>
       <c r="X4" t="n">
-        <v>1043.344090797604</v>
+        <v>810.1937877381166</v>
       </c>
       <c r="Y4" t="n">
-        <v>822.5515116540738</v>
+        <v>589.4012085945865</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>573.7617370571245</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="C5" t="n">
-        <v>307.3840804899464</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="D5" t="n">
         <v>41.00642392276842</v>
@@ -4558,31 +4558,31 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917624</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.2640879052547</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515912</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030611</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991317</v>
+        <v>704.5463761991323</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358418</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4600,19 +4600,19 @@
         <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>840.1393936243026</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>840.1393936243026</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>840.1393936243026</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X5" t="n">
-        <v>840.1393936243026</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y5" t="n">
-        <v>840.1393936243026</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>452.6925002222602</v>
+        <v>198.4551434940583</v>
       </c>
       <c r="C6" t="n">
-        <v>278.2394709411332</v>
+        <v>24.00211421293133</v>
       </c>
       <c r="D6" t="n">
-        <v>129.3050612798819</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E6" t="n">
-        <v>129.3050612798819</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>192.1295835699344</v>
+        <v>192.1295835699347</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302311</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>529.474696326755</v>
+        <v>529.4746963267551</v>
       </c>
       <c r="N6" t="n">
         <v>739.52866342936</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560898</v>
+        <v>909.4672107560897</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
@@ -4685,13 +4685,13 @@
         <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.519636212815</v>
+        <v>782.2822794846131</v>
       </c>
       <c r="X6" t="n">
-        <v>828.6681360072821</v>
+        <v>574.4307792790803</v>
       </c>
       <c r="Y6" t="n">
-        <v>620.9078372423282</v>
+        <v>366.6704805141264</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>294.598167514283</v>
+        <v>650.177417354891</v>
       </c>
       <c r="C7" t="n">
-        <v>294.598167514283</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D7" t="n">
-        <v>144.4815281019473</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E7" t="n">
-        <v>144.4815281019473</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="G7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="H7" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0971104001205</v>
+        <v>36.32155393434485</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
         <v>126.4133765287947</v>
@@ -4734,13 +4734,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4749,28 +4749,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>719.2759572512191</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>493.8069210092334</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>493.8069210092334</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>476.2466323445227</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>476.2466323445227</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>476.2466323445227</v>
+        <v>870.9699964984211</v>
       </c>
       <c r="Y7" t="n">
-        <v>476.2466323445227</v>
+        <v>650.177417354891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1217.916929169387</v>
+        <v>813.8765251289827</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.916929169387</v>
+        <v>813.8765251289827</v>
       </c>
       <c r="D8" t="n">
-        <v>859.6512305626361</v>
+        <v>455.6108265222322</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8629779643919</v>
+        <v>69.822573923988</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478436</v>
+        <v>62.87707317478453</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467166</v>
+        <v>187.3702251467175</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607411</v>
+        <v>442.175743760743</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045911</v>
+        <v>795.1862829045949</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995225</v>
+        <v>1219.647962995229</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209581</v>
+        <v>1655.591685209587</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940592</v>
+        <v>2053.905718940599</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550194</v>
+        <v>2359.356530550202</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661159</v>
+        <v>2540.564622661168</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="U8" t="n">
-        <v>2306.981581868348</v>
+        <v>2316.85011070011</v>
       </c>
       <c r="V8" t="n">
-        <v>1975.918694524777</v>
+        <v>2316.85011070011</v>
       </c>
       <c r="W8" t="n">
-        <v>1623.150039254663</v>
+        <v>1964.081455429996</v>
       </c>
       <c r="X8" t="n">
-        <v>1249.684280993584</v>
+        <v>1590.615697168916</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.684280993584</v>
+        <v>1200.476365193105</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010732</v>
+        <v>929.5097208010823</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199462</v>
+        <v>755.0566915199553</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586949</v>
+        <v>606.122281858704</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>446.8848268532485</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>300.3502688801335</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718026</v>
+        <v>163.6480708763217</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993886</v>
+        <v>69.871205304458</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637184</v>
+        <v>113.488757963719</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148172</v>
+        <v>559.9063389572714</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482981</v>
+        <v>854.442322390753</v>
       </c>
       <c r="M9" t="n">
-        <v>955.6882062225989</v>
+        <v>1217.508790865055</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.168537559993</v>
+        <v>1604.593193337625</v>
       </c>
       <c r="O9" t="n">
-        <v>1675.055347547381</v>
+        <v>1936.480003325014</v>
       </c>
       <c r="P9" t="n">
-        <v>2237.368846930543</v>
+        <v>2445.345361789042</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342778</v>
+        <v>2560.562760342787</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251694</v>
+        <v>2424.826280251703</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685343</v>
+        <v>2230.816477685352</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751572</v>
+        <v>2002.726321751581</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.57421351983</v>
+        <v>1767.574213519839</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791628</v>
+        <v>1513.336856791637</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586095</v>
+        <v>1305.485356586104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821141</v>
+        <v>1097.72505782115</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>790.667423953363</v>
+        <v>897.5698453988563</v>
       </c>
       <c r="C10" t="n">
-        <v>621.7312410254561</v>
+        <v>728.6336624709494</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7312410254561</v>
+        <v>578.5170230586136</v>
       </c>
       <c r="E10" t="n">
-        <v>473.818147443063</v>
+        <v>430.6039294762205</v>
       </c>
       <c r="F10" t="n">
-        <v>473.818147443063</v>
+        <v>283.7139819783101</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8310225827537</v>
+        <v>199.9560228422492</v>
       </c>
       <c r="H10" t="n">
-        <v>157.0862549473602</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685557</v>
+        <v>51.21125520685575</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380125</v>
+        <v>76.63468308380168</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676563</v>
+        <v>248.2500215676571</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368911</v>
+        <v>523.3850043368925</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904023</v>
+        <v>823.8653899904043</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.635640101613</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931092</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616498</v>
+        <v>1581.490387616501</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477361</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.156055412618</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="S10" t="n">
-        <v>1533.156055412618</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="T10" t="n">
-        <v>1310.174753887023</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="U10" t="n">
-        <v>1310.174753887023</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="V10" t="n">
-        <v>1055.490265681136</v>
+        <v>1635.769145477364</v>
       </c>
       <c r="W10" t="n">
-        <v>790.667423953363</v>
+        <v>1346.351975440404</v>
       </c>
       <c r="X10" t="n">
-        <v>790.667423953363</v>
+        <v>1118.362424542386</v>
       </c>
       <c r="Y10" t="n">
-        <v>790.667423953363</v>
+        <v>897.5698453988563</v>
       </c>
     </row>
     <row r="11">
@@ -5038,37 +5038,37 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>746.8882603249857</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1344.266747951538</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.6143379232838</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2359.995517520015</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2140.394052542956</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X13" t="n">
-        <v>1182.055381897054</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y13" t="n">
-        <v>961.2628027535235</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>429.5088224239596</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1026.887310050512</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>1654.485273605118</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
-        <v>2206.395003844405</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1533.987177846418</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1244.570007809457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1016.58045691144</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1016.58045691144</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5506,28 +5506,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5542,22 +5542,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5588,22 +5588,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
         <v>2001.151557821488</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>929.7309773356195</v>
+        <v>802.9288273958734</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>633.9926444679666</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>483.8760050556308</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578602</v>
@@ -5670,16 +5670,16 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304621</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.711814750802</v>
+        <v>1205.369871369643</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.9192356072716</v>
+        <v>984.5772922261132</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406465</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273892</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>779.6143379232838</v>
+        <v>513.8536007400694</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121625</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270425</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T22" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U22" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854704</v>
       </c>
       <c r="V22" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648817</v>
       </c>
       <c r="W22" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138393</v>
       </c>
       <c r="Y22" t="n">
-        <v>915.1035305473698</v>
+        <v>695.5020655703091</v>
       </c>
     </row>
     <row r="23">
@@ -5977,61 +5977,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355934</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068006</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694703</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.83315239859</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492574</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.25260147478</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6056,37 +6056,37 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.5840502527389</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803934</v>
       </c>
       <c r="K24" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516138</v>
       </c>
       <c r="L24" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793923</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3192.420589669523</v>
+        <v>801.6605733532801</v>
       </c>
       <c r="C25" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="D25" t="n">
-        <v>3023.484406741616</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E25" t="n">
-        <v>2875.571313159223</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.8166630479718</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.9326143059</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328841</v>
+        <v>2160.315914855602</v>
       </c>
       <c r="U25" t="n">
-        <v>4112.268354578271</v>
+        <v>1871.2406881998</v>
       </c>
       <c r="V25" t="n">
-        <v>4112.268354578271</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W25" t="n">
-        <v>3822.85118454131</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X25" t="n">
-        <v>3594.861633643293</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y25" t="n">
-        <v>3374.069054499763</v>
+        <v>983.3090381835199</v>
       </c>
     </row>
     <row r="26">
@@ -6214,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C27" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D27" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G27" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>2808.971891347485</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>3406.350378974037</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>4033.948342528643</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S27" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T27" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U27" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V27" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W27" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X27" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y27" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>702.4944101284095</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>533.5582272005026</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>383.4415877881669</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2166.101889898846</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1877.026663243044</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.342175037157</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1332.925005000197</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1104.935454102179</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>884.1428749586493</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2940.5785039035</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>2940.5785039035</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>2790.461864491165</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>2733.859482001421</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>2586.969534503511</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T31" t="n">
-        <v>4404.185983673937</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>4115.110757018135</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>3860.426268812248</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>3571.009098775287</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>3343.01954787727</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>3122.22696873374</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,31 +6721,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>917.5010142286973</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>917.5010142286973</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>767.3843748163615</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>1099.149479058937</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6934,22 +6934,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6967,22 +6967,22 @@
         <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7019,22 +7019,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>740.5562989961525</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>740.5562989961525</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406111</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282753</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458822</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797186</v>
@@ -7122,25 +7122,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.3568999154069</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>950.7540666811333</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C40" t="n">
-        <v>781.8178837532264</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D40" t="n">
-        <v>631.7012443408906</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U40" t="n">
-        <v>1722.845275821998</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V40" t="n">
-        <v>1468.160787616111</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W40" t="n">
-        <v>1178.743617579151</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X40" t="n">
-        <v>950.7540666811333</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y40" t="n">
-        <v>950.7540666811333</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
     <row r="41">
@@ -7405,43 +7405,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466573</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>2233.355914590558</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>2383.002557118213</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2716.927329289434</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>3212.252935505192</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>3809.631423131744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>4437.229386686351</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4437.229386686351</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>634.4644740681603</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>465.5282911402533</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7596,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2317.673418815656</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T43" t="n">
-        <v>2098.071953838597</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U43" t="n">
-        <v>1808.996727182795</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V43" t="n">
-        <v>1554.312238976908</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W43" t="n">
-        <v>1264.895068939947</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X43" t="n">
-        <v>1036.90551804193</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y43" t="n">
-        <v>816.1129388984</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>2715.159942084666</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>3210.485548300425</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>3807.864035926977</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>3807.864035926977</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>4267.210002903525</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>878.3568999154069</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>709.4207169875</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>559.3040775751642</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>411.3909839927711</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>411.3909839927711</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1871.240688199802</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1616.556199993915</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1327.139029956954</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1099.149479058937</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>878.3568999154069</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,16 +8060,16 @@
         <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71.18793141915887</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>26.13373767211354</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446525</v>
+        <v>106.7437663446522</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761156</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418294</v>
       </c>
       <c r="K6" t="n">
-        <v>97.32166909127241</v>
+        <v>97.32166909127284</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0.399928146287948</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>264.4747475094983</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348524</v>
+        <v>20.98618304348497</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-12</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -23418,10 +23418,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,7 +23430,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>161.303642312123</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>15.70159709961428</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>99.28295407562288</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23889,22 +23889,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>125.1956044930017</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.9259388694759707</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>45.69767948409211</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194396</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856558</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24375,7 +24375,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,16 +24414,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>178.2123075861799</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>103.902616885434</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>186.7544012944547</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>90.39760398172278</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>12.107663475853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25311,25 +25311,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>10.85445046951727</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>31.71340154579413</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>34.11482774761924</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>119.4047645948079</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>72.68610972170704</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612028</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>697885.504384641</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846404</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="E2" t="n">
         <v>686074.6097365058</v>
       </c>
       <c r="F2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="H2" t="n">
-        <v>686074.6097365053</v>
-      </c>
       <c r="I2" t="n">
+        <v>686074.6097365054</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365055</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="L2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365054</v>
       </c>
-      <c r="K2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="L2" t="n">
-        <v>686074.6097365055</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="P2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365053</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580776</v>
+        <v>390680.0076580802</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606945</v>
+        <v>507909.2320606921</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911483</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101731</v>
+        <v>95270.23779101786</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954693</v>
+        <v>132717.9756954688</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555028</v>
+        <v>139261.6527555021</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867813</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678126</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678135</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678138</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26447,10 +26447,10 @@
         <v>10557.08828678121</v>
       </c>
       <c r="L4" t="n">
+        <v>10557.08828678127</v>
+      </c>
+      <c r="M4" t="n">
         <v>10557.08828678121</v>
-      </c>
-      <c r="M4" t="n">
-        <v>10557.08828678126</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567887</v>
+        <v>92902.86757567906</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26490,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.529823907</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-295582.9453856805</v>
+        <v>-295582.9453856804</v>
       </c>
       <c r="C6" t="n">
         <v>384505.0352055128</v>
       </c>
       <c r="D6" t="n">
-        <v>75040.97639538113</v>
+        <v>75040.97639537934</v>
       </c>
       <c r="E6" t="n">
-        <v>66485.75956512296</v>
+        <v>66138.38031076832</v>
       </c>
       <c r="F6" t="n">
-        <v>574394.9916258174</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="G6" t="n">
-        <v>574394.9916258171</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="H6" t="n">
-        <v>574394.991625817</v>
+        <v>574047.6123714605</v>
       </c>
       <c r="I6" t="n">
-        <v>574394.9916258173</v>
+        <v>574047.6123714601</v>
       </c>
       <c r="J6" t="n">
-        <v>505395.837206703</v>
+        <v>505048.4579523454</v>
       </c>
       <c r="K6" t="n">
-        <v>574394.991625817</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="L6" t="n">
-        <v>479124.7538347999</v>
+        <v>478777.3745804426</v>
       </c>
       <c r="M6" t="n">
-        <v>441677.0159303481</v>
+        <v>441329.6366759915</v>
       </c>
       <c r="N6" t="n">
-        <v>574394.991625817</v>
+        <v>574047.6123714604</v>
       </c>
       <c r="O6" t="n">
-        <v>574394.991625817</v>
+        <v>574047.6123714602</v>
       </c>
       <c r="P6" t="n">
-        <v>574394.9916258173</v>
+        <v>574047.6123714604</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627818</v>
+        <v>933.7024595627837</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26755,10 +26755,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856946</v>
+        <v>640.1406900856969</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099647</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933034</v>
+        <v>319.6474457933056</v>
       </c>
       <c r="E3" t="n">
-        <v>434.273040778892</v>
+        <v>434.2730407788898</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27011,40 +27011,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841883</v>
+        <v>376.4268100841907</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139538</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015071</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841883</v>
+        <v>376.4268100841905</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139536</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841883</v>
+        <v>376.4268100841907</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139538</v>
+        <v>532.5675980139517</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>327.6330159580934</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>42.9396355049906</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="3">
@@ -27457,16 +27457,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>63.39144972487516</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27475,7 +27475,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27505,25 +27505,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>52.45542538973348</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,10 +27539,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27551,16 +27551,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27596,13 +27596,13 @@
         <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>240.7413284074914</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>270.0175387803994</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,10 +27618,10 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>101.5590117695014</v>
+        <v>152.7039266531025</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96916161917676</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27672,16 +27672,16 @@
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>38.57920276037748</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>85.52708871590687</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27700,22 +27700,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>144.569111789956</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>37.9433410224201</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.92180400150561</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27794,10 +27794,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
-        <v>234.7529575457644</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>43.66298711650973</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>351.2841633575255</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465054</v>
+        <v>65.76608425465022</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348407</v>
+        <v>123.4854171348406</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>9.769843543435258</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27940,7 +27940,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.77644916453508</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>1.776449164526092</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28016,22 +28016,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>83.38687406700591</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430994</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640953</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503845</v>
+        <v>194.6738502503844</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7514885103387</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>24.34838502609557</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3.183231456205249e-12</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>3.922195901395753e-12</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29985,7 +29985,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.16927002350879</v>
       </c>
       <c r="J5" t="n">
-        <v>209.5161878388634</v>
+        <v>209.5161878388633</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
-        <v>389.5577350167918</v>
+        <v>389.5577350167917</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658378</v>
       </c>
       <c r="P5" t="n">
-        <v>354.9824263269073</v>
+        <v>354.9824263269072</v>
       </c>
       <c r="Q5" t="n">
-        <v>266.5770185656231</v>
+        <v>266.577018565623</v>
       </c>
       <c r="R5" t="n">
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702306</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1974850295540029</v>
+        <v>0.1974850295540028</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.32079757678718</v>
+        <v>1.320797576787179</v>
       </c>
       <c r="H6" t="n">
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990947</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
-        <v>213.2798437919895</v>
+        <v>213.2798437919894</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
-        <v>334.6599825043656</v>
+        <v>334.6599825043655</v>
       </c>
       <c r="N6" t="n">
-        <v>343.517436429399</v>
+        <v>343.5174364293989</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480711</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736543</v>
       </c>
       <c r="S6" t="n">
-        <v>24.53323569163905</v>
+        <v>24.53323569163904</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944813</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.0868945774202092</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,22 +31436,22 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.107312319912174</v>
+        <v>1.107312319912173</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582787</v>
       </c>
       <c r="I7" t="n">
-        <v>33.29990140244975</v>
+        <v>33.29990140244974</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779067</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
-        <v>164.6271425440336</v>
+        <v>164.6271425440335</v>
       </c>
       <c r="M7" t="n">
         <v>173.576239384051</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
-        <v>133.9243918555596</v>
+        <v>133.9243918555595</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.7223070791912</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350554</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.73124354871565</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885552</v>
+        <v>3.75357772688556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546667</v>
+        <v>38.44132789546675</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157554</v>
+        <v>144.7098053157557</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972529</v>
+        <v>318.5802175972536</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763184</v>
+        <v>477.4691627763194</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354923</v>
+        <v>592.3427171354934</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359932</v>
+        <v>659.0954050359945</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525068</v>
+        <v>669.7602577525082</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307886</v>
+        <v>632.4356192307898</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983014</v>
+        <v>539.7691690983025</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542124</v>
+        <v>405.3441667542133</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864748</v>
+        <v>235.7856768864752</v>
       </c>
       <c r="S8" t="n">
-        <v>85.5346524514046</v>
+        <v>85.53465245140478</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.43128649944155</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.3002862181508447</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436931</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035142</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026262</v>
+        <v>69.14683309026276</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079427</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502164</v>
+        <v>324.3030514502171</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571275</v>
+        <v>436.0654741571284</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461716</v>
+        <v>508.867840461717</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152207</v>
+        <v>522.3360580152219</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519078</v>
+        <v>477.8354464519088</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947585</v>
+        <v>383.5050724947592</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463699</v>
+        <v>256.3629847463704</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.693320920479</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366402</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133926</v>
+        <v>8.095024154133943</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419031</v>
+        <v>0.1321277065419034</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752561</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840002</v>
+        <v>14.96985254840005</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415873</v>
+        <v>50.63422518415884</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.039410295406</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.618318577252</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490126</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.9316641023127</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462347</v>
+        <v>257.6559590462352</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046252</v>
+        <v>237.9869810046256</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708733</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939801</v>
+        <v>140.9890713939803</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307405</v>
+        <v>75.70643221307421</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658774</v>
+        <v>29.3427477865878</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942742</v>
+        <v>7.194100917942757</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650322</v>
+        <v>0.09183958618650341</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990647</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
-        <v>211.5147800288493</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192562</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N21" t="n">
-        <v>359.7096985496635</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,43 +32621,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348431</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.754615566328</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817572</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162557</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017567</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159421</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460023</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236504</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669219</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078743</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420753</v>
       </c>
       <c r="K24" t="n">
-        <v>161.7871425275306</v>
+        <v>475.1391886422583</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862117</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071781</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558032</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742436</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275953</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,43 +32858,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189902</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121569</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869271</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.405663379626</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355176</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588151</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392043</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106786</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920055</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515926</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670477</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532764</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>233.3139244897918</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33259,10 +33259,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33274,10 +33274,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,22 +33505,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>309.7666854143577</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33739,25 +33739,25 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>741.1502463817021</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33973,31 +33973,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>660.0558748011979</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>353.1300748477945</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34459,13 +34459,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>606.5820696732812</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34780,16 +34780,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089027</v>
       </c>
       <c r="L3" t="n">
         <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>263.7138800015062</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>238.3094620181793</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
         <v>171.6550983098281</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966406</v>
+        <v>106.3800667966403</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217703</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664461</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186564</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441511</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117352</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>172.7600739089029</v>
+        <v>172.7600739089033</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
-        <v>192.5259485823473</v>
+        <v>192.5259485823472</v>
       </c>
       <c r="N6" t="n">
-        <v>212.1757243460657</v>
+        <v>212.1757243460656</v>
       </c>
       <c r="O6" t="n">
-        <v>171.6550983098281</v>
+        <v>171.655098309828</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>118.2400000337409</v>
       </c>
       <c r="Q6" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649636</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35111,10 +35111,10 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>131.2029511204531</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496811</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705673</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313379</v>
+        <v>257.3793117313389</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655051</v>
+        <v>356.5763021655062</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087205</v>
+        <v>428.7491718087218</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559159</v>
+        <v>440.3471941559173</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091018</v>
+        <v>402.3374078091031</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430319</v>
+        <v>308.536173343033</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.038476879763</v>
+        <v>183.0384768797638</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234264</v>
+        <v>20.20013907234312</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127562</v>
+        <v>62.90656844127602</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758574</v>
+        <v>450.9268494884367</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772534</v>
+        <v>297.5110943772542</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396977</v>
+        <v>366.7338065396987</v>
       </c>
       <c r="N9" t="n">
-        <v>391.3942740781754</v>
+        <v>390.9943459318886</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074633</v>
+        <v>335.2392020074643</v>
       </c>
       <c r="P9" t="n">
-        <v>567.9934337203654</v>
+        <v>514.0054125899273</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.4584983961975</v>
+        <v>116.3812106603489</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873301</v>
+        <v>25.68023017873325</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513691</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.9141240093287</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641533</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254638</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186649</v>
+        <v>262.5721089186653</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357667</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228567</v>
+        <v>54.82702814228595</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683839</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>171.2123056344834</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770464</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
-        <v>77.5403726145191</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359229</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N21" t="n">
-        <v>228.3679864663302</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317142</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396425</v>
+        <v>285.7087110396417</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367767</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902943</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193511</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243155</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924724</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902402</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774858</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754086</v>
       </c>
       <c r="K24" t="n">
-        <v>23.94570355317166</v>
+        <v>337.2977496678993</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641933</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238448</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113588</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295327</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899072</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060452</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>94.75954470991759</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36922,10 +36922,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,22 +37153,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>171.2123056344834</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>609.8085342983688</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37551,7 +37551,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
@@ -37621,31 +37621,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>517.9218408791796</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37785,7 +37785,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
         <v>735.3001107902948</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>219.1556674334643</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38107,13 +38107,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>463.9858252288368</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2973633.116693904</v>
+        <v>2975393.646996688</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -664,7 +664,7 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>85.20115868761656</v>
+        <v>13.11342416039179</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,13 +709,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -737,19 +737,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>109.3170492634406</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>1.219197308813198</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -800,13 +800,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -840,7 +840,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>16.50545955619159</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>54.50908631327145</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -913,7 +913,7 @@
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>263.7138800015061</v>
@@ -974,13 +974,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>127.4695742187183</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>2.875953774682731</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.1525249552777</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888211</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>182.0466682725274</v>
+        <v>197.1188673714096</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1189,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.2755231462504</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>225.2436000926511</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>133.5587268592427</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614505</v>
+        <v>92.83909691614507</v>
       </c>
       <c r="I9" t="n">
-        <v>18.47335059662623</v>
+        <v>20.24979976115239</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,13 +1302,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>123.4611042028411</v>
       </c>
       <c r="G10" t="n">
-        <v>82.92037954470028</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590395</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>19.72264368952156</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1587,10 +1587,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>241.6877826129297</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576146</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1770,19 +1770,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428169</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>176.1811323375794</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1903,10 +1903,10 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5981994227929</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2058,7 +2058,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2092,13 +2092,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417083</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2140,7 +2140,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
         <v>188.3046392154443</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892427993</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2335,7 +2335,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695535</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.752258470131</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128548</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T24" t="n">
         <v>188.3046392154443</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856558</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012174</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>148.235026438394</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>70.04554881124324</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,10 +2766,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0.8253826161906772</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784677</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3274,7 +3274,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428169</v>
+        <v>83.06560892428172</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722596</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>113.7076464771371</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722603</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3836,7 +3836,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H42" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T42" t="n">
         <v>188.3046392154443</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S43" t="n">
-        <v>134.5665975534137</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>160.176346405345</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710052</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,13 +3988,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T45" t="n">
         <v>188.3046392154443</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,10 +4149,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428318</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101216</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.4820441686398</v>
+        <v>574.0438072739746</v>
       </c>
       <c r="C2" t="n">
-        <v>114.1043876014619</v>
+        <v>307.6661507067967</v>
       </c>
       <c r="D2" t="n">
-        <v>114.1043876014619</v>
+        <v>41.28849413961871</v>
       </c>
       <c r="E2" t="n">
-        <v>114.1043876014619</v>
+        <v>41.28849413961871</v>
       </c>
       <c r="F2" t="n">
-        <v>107.1588868522584</v>
+        <v>34.34299339041523</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4330,16 +4330,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917585</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030601</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>900.5447187946889</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="U2" t="n">
-        <v>646.8597007358178</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="V2" t="n">
-        <v>646.8597007358178</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="W2" t="n">
-        <v>646.8597007358178</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="X2" t="n">
-        <v>646.8597007358178</v>
+        <v>840.4214638411526</v>
       </c>
       <c r="Y2" t="n">
-        <v>380.4820441686398</v>
+        <v>574.0438072739746</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>131.5183722823837</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C3" t="n">
-        <v>21.09711040012049</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D3" t="n">
-        <v>21.09711040012049</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E3" t="n">
-        <v>21.09711040012049</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
         <v>21.09711040012049</v>
@@ -4412,10 +4412,10 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699341</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L3" t="n">
-        <v>338.8740072302309</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
         <v>529.4746963267547</v>
@@ -4433,28 +4433,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1053.62400757288</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1053.62400757288</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>1053.62400757288</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>1053.62400757288</v>
       </c>
       <c r="V3" t="n">
-        <v>801.367527981072</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="W3" t="n">
-        <v>547.1301712528705</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="X3" t="n">
-        <v>339.2786710473376</v>
+        <v>818.4718993411373</v>
       </c>
       <c r="Y3" t="n">
-        <v>131.5183722823837</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>589.4012085945865</v>
+        <v>604.6256521288109</v>
       </c>
       <c r="C4" t="n">
-        <v>589.4012085945865</v>
+        <v>604.6256521288109</v>
       </c>
       <c r="D4" t="n">
-        <v>439.2845691822508</v>
+        <v>454.5090127164751</v>
       </c>
       <c r="E4" t="n">
-        <v>291.3714755998577</v>
+        <v>306.595919134082</v>
       </c>
       <c r="F4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>159.7059716361716</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287944</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7083726551007</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375333</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227044</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.469937207554</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4512,28 +4512,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>1054.855520006025</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="W4" t="n">
-        <v>1038.183338636134</v>
+        <v>659.6853352735295</v>
       </c>
       <c r="X4" t="n">
-        <v>810.1937877381166</v>
+        <v>604.6256521288109</v>
       </c>
       <c r="Y4" t="n">
-        <v>589.4012085945865</v>
+        <v>604.6256521288109</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044907</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="D5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="E5" t="n">
-        <v>41.00642392276842</v>
+        <v>307.3840804899463</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356495</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="G5" t="n">
-        <v>21.09711040012049</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4606,13 +4606,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
+        <v>1054.855520006025</v>
+      </c>
+      <c r="X5" t="n">
         <v>788.4778634388466</v>
       </c>
-      <c r="X5" t="n">
-        <v>522.1002068716687</v>
-      </c>
       <c r="Y5" t="n">
-        <v>522.1002068716687</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>198.4551434940583</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="C6" t="n">
-        <v>24.00211421293133</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D6" t="n">
         <v>21.09711040012049</v>
@@ -4670,28 +4670,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U6" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V6" t="n">
-        <v>1036.519636212815</v>
+        <v>819.7034117742819</v>
       </c>
       <c r="W6" t="n">
-        <v>782.2822794846131</v>
+        <v>565.4660550460803</v>
       </c>
       <c r="X6" t="n">
-        <v>574.4307792790803</v>
+        <v>357.6145548405475</v>
       </c>
       <c r="Y6" t="n">
-        <v>366.6704805141264</v>
+        <v>149.8542560755936</v>
       </c>
     </row>
     <row r="7">
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>634.9529738206666</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>466.0167908927597</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>315.900151480424</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>167.9870578980309</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434485</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
         <v>527.7368878375335</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>870.9699964984211</v>
+        <v>855.7455529641967</v>
       </c>
       <c r="Y7" t="n">
-        <v>650.177417354891</v>
+        <v>634.9529738206666</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>813.8765251289827</v>
+        <v>1182.839042069394</v>
       </c>
       <c r="C8" t="n">
-        <v>813.8765251289827</v>
+        <v>813.8765251289826</v>
       </c>
       <c r="D8" t="n">
         <v>455.6108265222322</v>
       </c>
       <c r="E8" t="n">
-        <v>69.822573923988</v>
+        <v>69.8225739239879</v>
       </c>
       <c r="F8" t="n">
-        <v>62.87707317478453</v>
+        <v>62.87707317478443</v>
       </c>
       <c r="G8" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="H8" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467175</v>
+        <v>187.3702251467169</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760743</v>
+        <v>442.1757437607419</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045949</v>
+        <v>795.1862829045917</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995229</v>
+        <v>1219.647962995225</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209587</v>
+        <v>1655.591685209583</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940599</v>
+        <v>2053.905718940594</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550202</v>
+        <v>2359.356530550197</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661168</v>
+        <v>2540.564622661163</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="U8" t="n">
-        <v>2316.85011070011</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="V8" t="n">
-        <v>2316.85011070011</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.081455429996</v>
+        <v>2333.043972370408</v>
       </c>
       <c r="X8" t="n">
-        <v>1590.615697168916</v>
+        <v>1959.578214109328</v>
       </c>
       <c r="Y8" t="n">
-        <v>1200.476365193105</v>
+        <v>1569.438882133516</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010823</v>
+        <v>929.5097208010773</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199553</v>
+        <v>755.0566915199503</v>
       </c>
       <c r="D9" t="n">
-        <v>606.122281858704</v>
+        <v>606.122281858699</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532485</v>
+        <v>446.8848268532435</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801335</v>
+        <v>300.3502688801285</v>
       </c>
       <c r="G9" t="n">
-        <v>163.6480708763217</v>
+        <v>165.4424639718026</v>
       </c>
       <c r="H9" t="n">
-        <v>69.871205304458</v>
+        <v>71.66559839993887</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J9" t="n">
-        <v>113.488757963719</v>
+        <v>158.217815169656</v>
       </c>
       <c r="K9" t="n">
-        <v>559.9063389572714</v>
+        <v>342.8148115207551</v>
       </c>
       <c r="L9" t="n">
-        <v>854.442322390753</v>
+        <v>637.3507949542363</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865055</v>
+        <v>1000.417263428537</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.593193337625</v>
+        <v>1634.156546613376</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325014</v>
+        <v>1966.043356600765</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789042</v>
+        <v>2213.07871503039</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342787</v>
+        <v>2536.272628442625</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342787</v>
+        <v>2560.562760342782</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251703</v>
+        <v>2424.826280251698</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685352</v>
+        <v>2230.816477685347</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.726321751581</v>
+        <v>2002.726321751576</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519839</v>
+        <v>1767.574213519834</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791637</v>
+        <v>1513.336856791632</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586104</v>
+        <v>1305.485356586099</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.72505782115</v>
+        <v>1097.725057821145</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>897.5698453988563</v>
+        <v>642.8853571929673</v>
       </c>
       <c r="C10" t="n">
-        <v>728.6336624709494</v>
+        <v>473.9491742650604</v>
       </c>
       <c r="D10" t="n">
-        <v>578.5170230586136</v>
+        <v>323.8325348527246</v>
       </c>
       <c r="E10" t="n">
-        <v>430.6039294762205</v>
+        <v>175.9194412703315</v>
       </c>
       <c r="F10" t="n">
-        <v>283.7139819783101</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="G10" t="n">
-        <v>199.9560228422492</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685575</v>
+        <v>51.21125520685565</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380168</v>
+        <v>76.63468308380143</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676571</v>
+        <v>248.2500215676567</v>
       </c>
       <c r="L10" t="n">
-        <v>523.3850043368925</v>
+        <v>523.3850043368918</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904043</v>
+        <v>823.8653899904033</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101613</v>
+        <v>1122.635640101612</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931092</v>
+        <v>1382.582027931091</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616501</v>
+        <v>1581.490387616499</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.769145477364</v>
+        <v>1635.769145477362</v>
       </c>
       <c r="V10" t="n">
-        <v>1635.769145477364</v>
+        <v>1381.084657271475</v>
       </c>
       <c r="W10" t="n">
-        <v>1346.351975440404</v>
+        <v>1091.667487234515</v>
       </c>
       <c r="X10" t="n">
-        <v>1118.362424542386</v>
+        <v>863.6779363364974</v>
       </c>
       <c r="Y10" t="n">
-        <v>897.5698453988563</v>
+        <v>642.8853571929673</v>
       </c>
     </row>
     <row r="11">
@@ -5035,40 +5035,40 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474784</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,13 +5114,13 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
         <v>577.3880777468471</v>
@@ -5129,10 +5129,10 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1373.553594266882</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784064</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504995</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381638</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557706</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578603</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2359.995517520015</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2140.394052542956</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1851.318825887154</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1851.318825887154</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1561.901655850193</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348531</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5509,19 +5509,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014779</v>
@@ -5542,16 +5542,16 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5603,10 +5603,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793924</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.9288273958734</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>633.9926444679666</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>483.8760050556308</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5706,19 +5706,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1722.776592304621</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1433.359422267661</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1205.369871369643</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.5772922261132</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551872</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.81350961146</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.54781100471</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406465</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068007</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398591</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492575</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474781</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852885</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591806</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615994</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273892</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803934</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167372</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793923</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.45752234853</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400694</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121625</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121625</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121625</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121625</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270425</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703091</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5983,46 +5983,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355934</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068006</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694703</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852252</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.83315239859</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492574</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.25260147478</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.81249946657</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6056,31 +6056,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527389</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803934</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516138</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167372</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793923</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.45752234853</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>801.6605733532801</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253733</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.8166630479718</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832661</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2160.315914855602</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1871.2406881998</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>983.3090381835199</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6241,7 +6241,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>1022.530292372932</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>853.5941094450255</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>703.4774700326898</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>555.5643764502967</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6414,22 +6414,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1942.37805728168</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1652.96088724472</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1424.971336346702</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>1204.178757203172</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.0655846733346</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>411.1294017454277</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.129363765926</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2263.274529420831</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2043.673064443772</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1754.597837787969</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1499.913349582082</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1210.496179545122</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>982.5066286471044</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>761.7140495035743</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6697,22 +6697,22 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6721,7 +6721,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6742,10 +6742,10 @@
         <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J33" t="n">
         <v>245.2306927803937</v>
@@ -6788,10 +6788,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6861,10 +6861,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6882,7 +6882,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
         <v>2254.869721166297</v>
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
@@ -6928,22 +6928,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192582</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q35" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="36">
@@ -7010,25 +7010,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7089,19 +7089,19 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7165,61 +7165,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="39">
@@ -7247,25 +7247,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,37 +7308,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>984.5467179762944</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>815.6105350483875</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>665.4938956360518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>517.5808020536587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="42">
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>560.7825789706076</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>391.8463960427007</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D43" t="n">
-        <v>241.729756630365</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E43" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F43" t="n">
-        <v>93.81666304797186</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S43" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T43" t="n">
-        <v>2024.390058741045</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U43" t="n">
-        <v>1735.314832085242</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V43" t="n">
-        <v>1480.630343879355</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W43" t="n">
-        <v>1191.213173842395</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>963.2236229443774</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>742.4310438008473</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
         <v>1948.813509611463</v>
@@ -7636,64 +7636,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192585</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273895</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.155464951614</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>1074.481071167372</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.45752234853</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400725</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121657</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270458</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138421</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
-        <v>97.32166909127218</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8139,7 +8139,7 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>106.7437663446522</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>163.0416663658823</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>45.18086586458311</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.1463441538076</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094983</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348497</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>2.842170943040401e-12</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -11314,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>161.303642312123</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,10 +23475,10 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>44.83521572366132</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219422</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>110.0033420516648</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23904,13 +23904,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9259388694759707</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194396</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856558</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>103.902616885434</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>75.37549921168801</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,10 +24654,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,10 +24852,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>65.54986409393101</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.22910392194222</v>
       </c>
       <c r="S34" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.2291039219422</v>
+        <v>57.22910392194217</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>31.71340154579413</v>
+        <v>37.1260136526046</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>46.45968844823085</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>57.22910392194325</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194059</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856545</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>736191.0431612028</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>736191.0431612027</v>
+        <v>736191.0431612026</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>736191.0431612026</v>
+        <v>736191.0431612027</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.504384641</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846401</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="F2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365054</v>
       </c>
       <c r="G2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="H2" t="n">
+        <v>686074.6097365053</v>
+      </c>
+      <c r="I2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="J2" t="n">
         <v>686074.6097365054</v>
-      </c>
-      <c r="I2" t="n">
-        <v>686074.6097365054</v>
-      </c>
-      <c r="J2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
         <v>686074.6097365057</v>
@@ -26355,7 +26355,7 @@
         <v>686074.6097365054</v>
       </c>
       <c r="P2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580802</v>
+        <v>390680.0076580789</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606921</v>
+        <v>507909.2320606934</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911483</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101786</v>
+        <v>95270.23779101754</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954688</v>
+        <v>132717.975695469</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26423,22 +26423,22 @@
         <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139261.6527555021</v>
+        <v>139261.6527555025</v>
       </c>
       <c r="E4" t="n">
-        <v>10557.0882867813</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="F4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10557.08828678126</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10557.08828678135</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678138</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
@@ -26450,16 +26450,16 @@
         <v>10557.08828678127</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="N4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678131</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678129</v>
       </c>
       <c r="P4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.0882867814</v>
       </c>
     </row>
     <row r="5">
@@ -26475,7 +26475,7 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567906</v>
+        <v>92902.86757567895</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26490,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.529823907</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26524,46 +26524,46 @@
         <v>-295582.9453856804</v>
       </c>
       <c r="C6" t="n">
-        <v>384505.0352055128</v>
+        <v>384505.0352055122</v>
       </c>
       <c r="D6" t="n">
-        <v>75040.97639537934</v>
+        <v>75040.97639537987</v>
       </c>
       <c r="E6" t="n">
-        <v>66138.38031076832</v>
+        <v>66451.02163968809</v>
       </c>
       <c r="F6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003815</v>
       </c>
       <c r="G6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="H6" t="n">
-        <v>574047.6123714605</v>
+        <v>574360.2537003814</v>
       </c>
       <c r="I6" t="n">
-        <v>574047.6123714601</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="J6" t="n">
-        <v>505048.4579523454</v>
+        <v>505361.0992812673</v>
       </c>
       <c r="K6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003817</v>
       </c>
       <c r="L6" t="n">
-        <v>478777.3745804426</v>
+        <v>479090.0159093642</v>
       </c>
       <c r="M6" t="n">
-        <v>441329.6366759915</v>
+        <v>441642.2780049124</v>
       </c>
       <c r="N6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003816</v>
       </c>
       <c r="O6" t="n">
-        <v>574047.6123714602</v>
+        <v>574360.2537003815</v>
       </c>
       <c r="P6" t="n">
-        <v>574047.6123714604</v>
+        <v>574360.2537003814</v>
       </c>
     </row>
   </sheetData>
@@ -26724,10 +26724,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
     </row>
     <row r="3">
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>614.0550137694781</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627837</v>
+        <v>933.7024595627827</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26755,10 +26755,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="J3" t="n">
         <v>1367.975500341674</v>
@@ -26776,10 +26776,10 @@
         <v>1367.975500341674</v>
       </c>
       <c r="O3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
     </row>
     <row r="4">
@@ -26795,10 +26795,10 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856969</v>
+        <v>640.1406900856956</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26810,7 +26810,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099647</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933056</v>
+        <v>319.6474457933045</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788898</v>
+        <v>434.2730407788911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,13 +26977,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27017,34 +27017,34 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841907</v>
+        <v>376.4268100841895</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015071</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841905</v>
+        <v>376.4268100841892</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.5675980139525</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841907</v>
+        <v>376.4268100841895</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139517</v>
+        <v>532.5675980139528</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,7 +27384,7 @@
         <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27393,7 +27393,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>327.6330159580934</v>
+        <v>399.7207504853182</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>63.39144972487516</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>16.93332764646449</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
@@ -27520,13 +27520,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27560,7 +27560,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>270.0175387803994</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>171.2005690757657</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>119.0199616619744</v>
       </c>
       <c r="C5" t="n">
-        <v>152.7039266531025</v>
+        <v>152.7039266531024</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.47975262776185</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590687</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>106.0172206769629</v>
@@ -27694,13 +27694,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>39.06360943114899</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>144.569111789956</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.1525249552777</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,7 +27754,7 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248086</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888211</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>43.66298711650973</v>
+        <v>28.59078801762757</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>301.0334742203004</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465022</v>
+        <v>65.76608425465039</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348406</v>
+        <v>123.4854171348407</v>
       </c>
       <c r="T8" t="n">
         <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
-        <v>9.769843543435258</v>
+        <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>123.9973686247619</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -27946,13 +27946,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1.776449164531016</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1.776449164526092</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>21.95994382009015</v>
       </c>
       <c r="G10" t="n">
-        <v>83.38687406700591</v>
+        <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2573199590395</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430994</v>
+        <v>104.8162497430995</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640953</v>
+        <v>101.5869591640954</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503844</v>
+        <v>194.6738502503845</v>
       </c>
       <c r="T10" t="n">
         <v>220.7514885103387</v>
@@ -28070,7 +28070,7 @@
         <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28812,7 +28812,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.183231456205249e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -29097,7 +29097,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.922195901395753e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29814,7 +29814,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29994,7 +29994,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.216893335571513e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.503051476384857e-12</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.838300041165675e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30699,7 +30699,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>2.310933054112521e-12</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -30708,10 +30708,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -30747,13 +30747,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -30762,7 +30762,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>1.005632358994952e-13</v>
       </c>
     </row>
   </sheetData>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75357772688556</v>
+        <v>3.753577726885556</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546675</v>
+        <v>38.44132789546671</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157557</v>
+        <v>144.7098053157555</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972536</v>
+        <v>318.5802175972532</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763194</v>
+        <v>477.4691627763189</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354934</v>
+        <v>592.3427171354929</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359945</v>
+        <v>659.0954050359938</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525082</v>
+        <v>669.7602577525074</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307898</v>
+        <v>632.4356192307891</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983025</v>
+        <v>539.769169098302</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542133</v>
+        <v>405.3441667542128</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864752</v>
+        <v>235.785676886475</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140478</v>
+        <v>85.53465245140468</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944155</v>
+        <v>16.43128649944153</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508447</v>
+        <v>0.3002862181508444</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436931</v>
+        <v>2.008341139436929</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035142</v>
+        <v>19.3963473203514</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026276</v>
+        <v>69.14683309026269</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079427</v>
+        <v>189.7441951079425</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502171</v>
+        <v>324.3030514502167</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571284</v>
+        <v>436.0654741571279</v>
       </c>
       <c r="M9" t="n">
-        <v>508.867840461717</v>
+        <v>508.8678404617165</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152219</v>
+        <v>522.3360580152213</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519088</v>
+        <v>477.8354464519082</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947592</v>
+        <v>383.5050724947588</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463704</v>
+        <v>256.3629847463701</v>
       </c>
       <c r="R9" t="n">
-        <v>124.693320920479</v>
+        <v>124.6933209204788</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366402</v>
+        <v>37.30405581366398</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133943</v>
+        <v>8.095024154133935</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419034</v>
+        <v>0.1321277065419033</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752561</v>
+        <v>1.683725746752559</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254840005</v>
+        <v>14.96985254840003</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415884</v>
+        <v>50.63422518415878</v>
       </c>
       <c r="J10" t="n">
-        <v>119.039410295406</v>
+        <v>119.0394102954059</v>
       </c>
       <c r="K10" t="n">
-        <v>195.618318577252</v>
+        <v>195.6183185772518</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490126</v>
+        <v>250.3240987490123</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023127</v>
+        <v>263.9316641023124</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462352</v>
+        <v>257.6559590462349</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046256</v>
+        <v>237.9869810046254</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708733</v>
+        <v>203.638975770873</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939803</v>
+        <v>140.9890713939802</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307421</v>
+        <v>75.70643221307412</v>
       </c>
       <c r="S10" t="n">
-        <v>29.3427477865878</v>
+        <v>29.34274778658776</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942757</v>
+        <v>7.194100917942749</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650341</v>
+        <v>0.09183958618650331</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>446.0127311990647</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558023</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>463.9598929192562</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,31 +32542,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558032</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,43 +32621,43 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348431</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.754615566328</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817572</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017567</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159421</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460023</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236504</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669219</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078743</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659448</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521099</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420753</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422583</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862117</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071781</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558032</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742436</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275953</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,43 +32858,43 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189902</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121569</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869271</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.405663379626</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355176</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588151</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392043</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106786</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920055</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515926</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670477</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532764</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,10 +34237,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T42" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U42" t="n">
         <v>0.1935814387275954</v>
@@ -34286,28 +34286,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515927</v>
@@ -34316,7 +34316,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558027</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>172.7600739089027</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>106.3800667966403</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
         <v>192.2171678043497</v>
@@ -34871,13 +34871,13 @@
         <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>181.0986910958077</v>
+        <v>181.0986910958076</v>
       </c>
       <c r="P4" t="n">
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705673</v>
+        <v>137.534313070567</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313389</v>
+        <v>257.3793117313384</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655062</v>
+        <v>356.5763021655056</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087218</v>
+        <v>428.7491718087211</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559173</v>
+        <v>440.3471941559165</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091031</v>
+        <v>402.3374078091024</v>
       </c>
       <c r="P8" t="n">
-        <v>308.536173343033</v>
+        <v>308.5361733430324</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797638</v>
+        <v>183.0384768797634</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234312</v>
+        <v>20.20013907234286</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127602</v>
+        <v>108.0874343058589</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884367</v>
+        <v>186.4616124758577</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772542</v>
+        <v>297.5110943772538</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396987</v>
+        <v>366.7338065396982</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318886</v>
+        <v>640.1406900856956</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074643</v>
+        <v>335.2392020074638</v>
       </c>
       <c r="P9" t="n">
-        <v>514.0054125899273</v>
+        <v>249.5306650804286</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603489</v>
+        <v>326.4584983961977</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783571</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873325</v>
+        <v>25.68023017873313</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513691</v>
+        <v>173.3488267513689</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093287</v>
+        <v>277.9141240093284</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641533</v>
+        <v>303.515541064153</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254638</v>
+        <v>301.7881314254635</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186653</v>
+        <v>262.5721089186651</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357667</v>
+        <v>200.9175350357665</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228595</v>
+        <v>54.82702814228578</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683839</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>303.8786972770464</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113578</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>332.6181808359229</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774858</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113588</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317142</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396417</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367767</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902943</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193511</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243155</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924724</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902402</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774858</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754086</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678993</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674328</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641933</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238448</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113588</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295327</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096348</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899072</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060452</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36603,7 +36603,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
@@ -36618,7 +36618,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37065,31 +37065,31 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37235,19 +37235,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317163</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37472,19 +37472,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q43" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.587454168382</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774872</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113583</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629534</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
